--- a/890_요구명세서.xlsx
+++ b/890_요구명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\890-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
   <si>
     <t>요구사항 ID</t>
   </si>
@@ -62,22 +62,12 @@
     <t>메인페이지</t>
   </si>
   <si>
-    <t>LIST01-PRINT01</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
     <t>메인페이지 출력</t>
   </si>
   <si>
-    <t>메인 페이지 출력
-아이콘, 제품명, 수량, 기한, 체크버튼, 작성 페이지 버튼, 탑 버튼, 스크롤이 출력될 것
-**항목별 특이사항**
-1.아이콘
- - 태그에 따라 다르게 아이콘을 출력</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -87,30 +77,15 @@
     <t>LIST01-CHECK01</t>
   </si>
   <si>
-    <t>체크 컬럼 업데이트</t>
-  </si>
-  <si>
-    <t>-체크 버튼 클릭 시 체크 값 변경</t>
-  </si>
-  <si>
     <t>LIST01-REDIRECT01</t>
   </si>
   <si>
     <t>상세페이지로 이동</t>
   </si>
   <si>
-    <t>제품명 클릭 시 상세 페이지로 이동</t>
-  </si>
-  <si>
-    <t>LIST01-REDIRECT02</t>
-  </si>
-  <si>
     <t>작성페이지로 이동</t>
   </si>
   <si>
-    <t>+버튼 클릭 시 작성 페이지로 이동</t>
-  </si>
-  <si>
     <t>COMMON01</t>
   </si>
   <si>
@@ -120,16 +95,6 @@
     <t>COMMON01-REDIRECT01</t>
   </si>
   <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>메인페이지 이동</t>
-  </si>
-  <si>
-    <t>헤더 출력
-헤더 클릭 시 메인페이지로 이동</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -154,11 +119,6 @@
   </si>
   <si>
     <t>삭제창 생성</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 삭제팝업창 출력용 버튼 제작
-- 버튼을 클릭 시 삭제팝업창 생성</t>
   </si>
   <si>
     <t>리스트 페이지로 이동</t>
@@ -278,12 +238,199 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>- 리스트 페이지 이동용 버튼 제작
--버튼을 클릭 시 리스트 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>-삭제 여부 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-PRINT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-PRINT02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료한 목록 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 완료하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON03</t>
+  </si>
+  <si>
+    <t>COMMON04</t>
+  </si>
+  <si>
+    <t>LIST01-REDIRECT02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02--REDIRECT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02--PRINT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON01--PRINT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02--REDIRECT02</t>
+  </si>
+  <si>
+    <t>COMMON02--REDIRECT03</t>
+  </si>
+  <si>
+    <t>페이지탑으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 리스트 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- +버튼 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 장바구니 버튼 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- TOP 버튼 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 삭제팝업창 출력용 버튼 제작
+- 버튼을 클릭 시 삭제팝업창 생성
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+메인 페이지 출력
+아이콘, 제품명, 수량, 기한, 체크버튼, 작성 페이지 버튼, 스크롤이 출력될 것
+**항목별 특이사항**
+1.아이콘
+ - 태그에 따라 다르게 아이콘을 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-체크 값이 1인 목록만 새로 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-체크 버튼 클릭 시 체크 값 변경
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+제품명 클릭 시 상세 페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++버튼 클릭 시 작성 페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 리스트 페이지 이동용 버튼 제작
+-버튼을 클릭 시 리스트 페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+헤더 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+헤더 클릭 시 메인페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+푸터 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++버튼 클릭 시 작성페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TOP 클릭 시 페이지 상단으로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+장바구니 클릭 시 완료된 리스트페이지로 이동
+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +467,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -354,12 +501,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -436,132 +577,114 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -911,458 +1034,584 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P21"/>
+  <dimension ref="B1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="5" customWidth="1"/>
-    <col min="4" max="4" width="26" style="5" customWidth="1"/>
-    <col min="5" max="5" width="9" style="5"/>
-    <col min="6" max="6" width="20.25" style="6" customWidth="1"/>
-    <col min="7" max="7" width="37.125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="6" customWidth="1"/>
-    <col min="9" max="9" width="9" style="5"/>
-    <col min="10" max="10" width="7.125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2"/>
+    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2"/>
+    <col min="10" max="10" width="7.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="2:16" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="G3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="J3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="K3" s="5"/>
+      <c r="P3" s="33"/>
+    </row>
+    <row r="4" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="P4" s="33"/>
+    </row>
+    <row r="5" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5"/>
+      <c r="P5" s="33"/>
+    </row>
+    <row r="6" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="P6" s="33"/>
+    </row>
+    <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" s="8"/>
-      <c r="P3" s="2"/>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="9" t="s">
+      <c r="E7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="2:16" ht="99" x14ac:dyDescent="0.3">
+      <c r="B8" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="I9" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="14"/>
+    </row>
+    <row r="11" spans="2:16" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="2:16" ht="132" x14ac:dyDescent="0.3">
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="18"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="25"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+    </row>
+    <row r="15" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="9"/>
-      <c r="I4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="8"/>
-      <c r="P4" s="2"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="12" t="s">
+      <c r="C15" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="13" t="s">
+      <c r="D15" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="E16" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" s="12"/>
+      <c r="I16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="P5" s="2"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:16" ht="33" x14ac:dyDescent="0.3">
-      <c r="B7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="2:16" ht="99" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="J16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="19" t="s">
+      <c r="C17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="12"/>
+      <c r="I17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="21"/>
+    </row>
+    <row r="19" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="24"/>
+    </row>
+    <row r="20" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K8" s="17"/>
-    </row>
-    <row r="9" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="I9" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="17"/>
-    </row>
-    <row r="10" spans="2:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="J10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="17"/>
-    </row>
-    <row r="11" spans="2:16" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="25" t="s">
+      <c r="C20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="J11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="24"/>
-    </row>
-    <row r="12" spans="2:16" ht="132" x14ac:dyDescent="0.3">
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="G12" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="24"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="35"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C18" s="11"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="38"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C19" s="11"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="38"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C20" s="11"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="38"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="11"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="38"/>
+      <c r="D20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="H20" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="24"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C21" s="8"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="24"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C22" s="8"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
     <mergeCell ref="C11:C14"/>
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="D13:D14"/>
     <mergeCell ref="F13:F14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="P3:P5"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/890_요구명세서.xlsx
+++ b/890_요구명세서.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
   <si>
     <t>요구사항 ID</t>
   </si>
@@ -95,9 +95,6 @@
     <t>COMMON01-REDIRECT01</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>상세 페이지</t>
   </si>
   <si>
@@ -107,18 +104,10 @@
     <t>LIST 정보 출력</t>
   </si>
   <si>
-    <t xml:space="preserve">
-- 리스트 페이지에서 이동 시 클릭했던 LIST의 상세 정보 출력
-</t>
-  </si>
-  <si>
     <t>유현호</t>
   </si>
   <si>
     <t>DETAIL-DELETE01</t>
-  </si>
-  <si>
-    <t>삭제창 생성</t>
   </si>
   <si>
     <t>리스트 페이지로 이동</t>
@@ -144,10 +133,314 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-- 초기 표시 정보는 공란으로 출력
-- 작성 완료/취소 버튼 출력</t>
+    <t>INSERT01-EXECUTE01</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST 정보 작성</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 제품명
+- 수량
+- 메모
+- 태그
+- 기한
+- 파일첨부
+</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>INSERT01-REDIRECT01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트 페이지로 이동</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DETAIL-REDIRECT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 리스트 페이지 이동용 버튼 제작
+- 버튼을 클릭 시 리스트 페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-PRINT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-PRINT02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료한 목록 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>목록 완료하기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-REDIRECT02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02--REDIRECT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>작성페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02--PRINT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>메인페이지 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON01--PRINT01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>푸터 출력</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMON02--REDIRECT02</t>
+  </si>
+  <si>
+    <t>COMMON02--REDIRECT03</t>
+  </si>
+  <si>
+    <t>페이지탑으로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료된 리스트 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- +버튼 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- 장바구니 버튼 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>- TOP 버튼 제작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양수진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유현호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+제품명 클릭 시 상세 페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++버튼 클릭 시 작성 페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+헤더 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+헤더 클릭 시 메인페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+푸터 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
++버튼 클릭 시 작성페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+TOP 클릭 시 페이지 상단으로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+장바구니 클릭 시 완료된 리스트페이지로 이동
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-태그,
+-제품명,
+-수량,
+-기한,
+-체크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-EXECUTE01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한초과 목록 자동갱신</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 페이지로 이동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 삭제페이지 이동 버튼 제작
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-완료플래그</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-기한</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+메인 페이지 출력
+아이콘, 제품명, 수량, 기한, 체크버튼, 작성 페이지 버튼이 출력될 것
+- 아이템이 넘칠 경우에 스크롤을 출력할 것
+**항목별 특이사항**
+1.아이콘
+ - 태그에 따라 다르게 아이콘을 출력
+2.기한
+ - (기한-현재시간)-day라고 출력하기
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-완료된 목록만 새로 출력
+1. 기한초과된 목록은 붉게 출력
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-화살표 버튼 클릭 시 체크 값 변경
+-버튼 클릭 시 슬라이드 애니메이션 후 리프레시
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-기한초과 목록은 미완료목록으로 갱신
+1. 현재시간보다 기한 시간이 작으면 완료플래그에 2를 넣는다
+2. 완료일자에 기한값을 넣는다
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-LIST 제목
+-LIST 상세내용
+-기한
+-수량
+-이미지
+-태그
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 리스트 페이지에서 이동 시 클릭했던 LIST의 상세 정보 출력
+- 이미지가 존재할 시 이미지 출력
+- 태그가 존재할 시 이미지 출력
+- 상세내용이 존재할 시 상세내용 공란으로 출력
+- 아이템이 넘칠 경우에 스크롤을 출력할 것
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -158,279 +451,31 @@
 - 기한
 - 파일첨부
 - 완료/취소 버튼
+- 달력
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>INSERT01-EXECUTE01</t>
+    <t xml:space="preserve">
+- 초기 표시 정보(제품명, 수량, 메모, 태그, 기한, 파일첨부, 달력)는 공란으로 출력
+- 작성 완료/취소 버튼 출력
+- 기한 작성 시 달력 출력
+- 아이템이 넘칠 경우에 스크롤을 출력할 것
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>LIST 정보 작성</t>
+    <t xml:space="preserve">
+- 작성 완료 버튼으로 제어 가능하게 구현
+- 파일첨부 제어 가능하게 구현
+- 제품명, 수량, 기한 필수 입력 사항으로 설정
+- 처리 완료 및 취소 후 작성한 LIST의 상세 페이지로 이동
+</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-- 작성 완료 버튼으로 제어 가능하게 구현
-- 수량 버튼, 파일첨부 제어 가능하게 구현
-- 제품명, 수량, 태그, 기한 필수 입력 사항으로 설정
-- 처리 완료 및 취소 후 작성한 LIST의 상세 페이지로 이동
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 제품명
-- 수량
-- 메모
-- 태그
-- 기한
-- 파일첨부
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>INSERT01-REDIRECT01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>리스트 페이지로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양수진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DETAIL01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DETAIL-REDIRECT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
--LIST 제목
--LIST 상세내용
--기한
--수량
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-태그,
--제품명,
--수량,
--기한,
--G15체크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 리스트 페이지 이동용 버튼 제작
-- 버튼을 클릭 시 리스트 페이지로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>-삭제 여부 확인</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST01-PRINT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LIST01-PRINT02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료한 목록 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록 완료하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON03</t>
-  </si>
-  <si>
-    <t>COMMON04</t>
-  </si>
-  <si>
-    <t>LIST01-REDIRECT02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON02--REDIRECT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON02--PRINT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>메인페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON01--PRINT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>헤더 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>푸터 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMON02--REDIRECT02</t>
-  </si>
-  <si>
-    <t>COMMON02--REDIRECT03</t>
-  </si>
-  <si>
-    <t>페이지탑으로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>완료된 리스트 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- +버튼 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- 장바구니 버튼 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>- TOP 버튼 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양수진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유현호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 삭제팝업창 출력용 버튼 제작
-- 버튼을 클릭 시 삭제팝업창 생성
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-메인 페이지 출력
-아이콘, 제품명, 수량, 기한, 체크버튼, 작성 페이지 버튼, 스크롤이 출력될 것
-**항목별 특이사항**
-1.아이콘
- - 태그에 따라 다르게 아이콘을 출력
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
--체크 값이 1인 목록만 새로 출력
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
--체크 버튼 클릭 시 체크 값 변경
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-제품명 클릭 시 상세 페이지로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-+버튼 클릭 시 작성 페이지로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 리스트 페이지 이동용 버튼 제작
--버튼을 클릭 시 리스트 페이지로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-헤더 출력
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-헤더 클릭 시 메인페이지로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-푸터 출력
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-+버튼 클릭 시 작성페이지로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-TOP 클릭 시 페이지 상단으로 이동
-</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">
-장바구니 클릭 시 완료된 리스트페이지로 이동
-</t>
+    <t>- 리스트 페이지 이동용 버튼 제작
+-버튼을 클릭 시 리스트 페이지로 이동</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,9 +662,6 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -653,13 +695,19 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,17 +722,23 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,10 +1088,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P22"/>
+  <dimension ref="B1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1089,15 +1143,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="32" t="s">
+    <row r="3" spans="2:16" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1106,10 +1160,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -1118,36 +1172,36 @@
         <v>15</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
+      <c r="P3" s="27"/>
+    </row>
+    <row r="4" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="P4" s="33"/>
-    </row>
-    <row r="5" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
+      <c r="P4" s="27"/>
+    </row>
+    <row r="5" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1155,12 +1209,14 @@
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
       </c>
@@ -1168,49 +1224,51 @@
         <v>15</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="P5" s="33"/>
-    </row>
-    <row r="6" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9" t="s">
+      <c r="P5" s="27"/>
+    </row>
+    <row r="6" spans="2:16" ht="99" x14ac:dyDescent="0.3">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="24"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" s="10"/>
-      <c r="I6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="P6" s="33"/>
-    </row>
-    <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="H7" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="H7" s="10"/>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1218,397 +1276,414 @@
         <v>15</v>
       </c>
       <c r="K7" s="5"/>
-    </row>
-    <row r="8" spans="2:16" ht="99" x14ac:dyDescent="0.3">
-      <c r="B8" s="34" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="34" t="s">
+      <c r="P7" s="27"/>
+    </row>
+    <row r="8" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="2:16" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="E9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="G9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="15" t="s">
+      <c r="F11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="14"/>
-    </row>
-    <row r="9" spans="2:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="14" t="s">
+      <c r="J11" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="K11" s="13"/>
+    </row>
+    <row r="12" spans="2:16" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="C12" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="14"/>
-    </row>
-    <row r="10" spans="2:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="14"/>
-    </row>
-    <row r="11" spans="2:16" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+      <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="F12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="G12" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:16" ht="132" x14ac:dyDescent="0.3">
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E13" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="G13" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H13" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="20" t="s">
+      <c r="I13" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K13" s="17"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="E14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I11" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K11" s="18"/>
-    </row>
-    <row r="12" spans="2:16" ht="132" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="18" t="s">
+      <c r="G14" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="31"/>
+      <c r="I14" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J14" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="18"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="27"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="5"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
     </row>
     <row r="16" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="36" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="5" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="B17" s="37"/>
       <c r="C17" s="5" t="s">
-        <v>58</v>
+        <v>21</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K17" s="5"/>
     </row>
     <row r="18" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="G18" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="12"/>
+      <c r="I18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="38"/>
+      <c r="C19" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K19" s="5"/>
+      <c r="L19" s="20"/>
+    </row>
+    <row r="20" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="38"/>
+      <c r="C20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="E20" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K20" s="5"/>
+      <c r="L20" s="23"/>
+    </row>
+    <row r="21" spans="2:12" ht="66" x14ac:dyDescent="0.3">
+      <c r="B21" s="37"/>
+      <c r="C21" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="21"/>
-    </row>
-    <row r="19" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="F21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="24"/>
-    </row>
-    <row r="20" spans="2:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="24"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C21" s="8"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="24"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="23"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="24"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="23"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C23" s="8"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="B3:B7"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="E13:E14"/>
+  <mergeCells count="17">
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="C12:C15"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B3:B8"/>
+    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="P3:P7"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="C9:C11"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/890_요구명세서.xlsx
+++ b/890_요구명세서.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\890-1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.197.51428"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14055" tabRatio="500"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>요구사항 ID</t>
   </si>
@@ -114,31 +105,24 @@
   </si>
   <si>
     <t>INSERT01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작성 페이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>INSERT01-PRINT01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>작성 페이지 출력</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>INSERT01-EXECUTE01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>LIST 정보 작성</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -149,94 +133,72 @@
 - 기한
 - 파일첨부
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>INSERT01-REDIRECT01</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>리스트 페이지로 이동</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>양수진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DETAIL01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>DETAIL-REDIRECT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 - 리스트 페이지 이동용 버튼 제작
 - 버튼을 클릭 시 리스트 페이지로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LIST01-PRINT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LIST01-PRINT02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>완료한 목록 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>목록 완료하기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COMMON02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>푸터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LIST01-REDIRECT02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COMMON02--REDIRECT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>작성페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COMMON02--PRINT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>메인페이지 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COMMON01--PRINT01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>헤더 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>푸터 출력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>COMMON02--REDIRECT02</t>
@@ -246,91 +208,73 @@
   </si>
   <si>
     <t>페이지탑으로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>완료된 리스트 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>O</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- +버튼 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- 장바구니 버튼 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>- TOP 버튼 제작</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>양수진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>유현호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 제품명 클릭 시 상세 페이지로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 +버튼 클릭 시 작성 페이지로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 헤더 출력
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 헤더 클릭 시 메인페이지로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 푸터 출력
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 +버튼 클릭 시 작성페이지로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 TOP 클릭 시 페이지 상단으로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 장바구니 클릭 시 완료된 리스트페이지로 이동
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-태그,
@@ -338,53 +282,41 @@
 -수량,
 -기한,
 -체크</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>LIST01-EXECUTE01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>기한초과 목록 자동갱신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>삭제 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 - 삭제페이지 이동 버튼 제작
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-완료플래그</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>-기한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -397,21 +329,18 @@
 2.기한
  - (기한-현재시간)-day라고 출력하기
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 -완료된 목록만 새로 출력
 1. 기한초과된 목록은 붉게 출력
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
 -화살표 버튼 클릭 시 체크 값 변경
 -버튼 클릭 시 슬라이드 애니메이션 후 리프레시
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -419,7 +348,6 @@
 1. 현재시간보다 기한 시간이 작으면 완료플래그에 2를 넣는다
 2. 완료일자에 기한값을 넣는다
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -430,7 +358,6 @@
 -이미지
 -태그
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -440,7 +367,6 @@
 - 상세내용이 존재할 시 상세내용 공란으로 출력
 - 아이템이 넘칠 경우에 스크롤을 출력할 것
 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -453,7 +379,6 @@
 - 완료/취소 버튼
 - 달력
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -462,7 +387,6 @@
 - 기한 작성 시 달력 출력
 - 아이템이 넘칠 경우에 스크롤을 출력할 것
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -471,70 +395,279 @@
 - 제품명, 수량, 기한 필수 입력 사항으로 설정
 - 처리 완료 및 취소 후 작성한 LIST의 상세 페이지로 이동
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>- 리스트 페이지 이동용 버튼 제작
 -버튼을 클릭 시 리스트 페이지로 이동</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+메인 페이지 출력
+아이콘, 제품명, 수량, 기한, 체크버튼이 출력될 것
+- 아이템이 넘칠 경우에 스크롤을 출력할 것
+**항목별 특이사항**
+1.아이콘
+ - 태그에 따라 다르게 아이콘을 출력
+2.기한
+ - (기한-현재시간)-day라고 출력하기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-완료된 목록만 새로 출력
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+완료 페이지 출력
+체크버튼을 제외하고 완료페이지와 동일하게 출력될 것
+- 아이템이 넘칠 경우에 스크롤을 출력할 것
+**항목별 특이사항**
+1.아이콘(메인페이지와 동일)
+2.기한
+ - y-m-d 형식으로 출력하기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-체크버튼 클릭 시 체크 값 변경
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 체크버튼 클릭 시 체크 값 변경
+- 체크값을 POST로 리스트페이지로 주고</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 체크버튼 클릭 시 체크 값 변경
+- 체크값을 POST로 리스트페이지로 주고
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 체크한 항목의 id값을 리스트페이지에 POST로 주고 그 항목을 완료처리한다
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-기한초과 목록은 완료목록으로 갱신
+1. 현재시간보다 기한 시간이 작으면 완료플래그에 2를 넣는다
+2. 완료일자에 기한값을 넣는다
+</t>
+  </si>
+  <si/>
+  <si>
+    <t>-기한
+-완료플래그
+-항목id</t>
+  </si>
+  <si>
+    <t>-완료플래그
+-항목id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+제품명 클릭 시 상세 페이지로 이동
+-상세페이지로 이동할 때 완료페이지인지 메인페이지인지 값을 넘겨줘야 함
+</t>
+  </si>
+  <si>
+    <t>-페이지값</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+완료 페이지 출력
+- 체크버튼을 제외하고
+  완료페이지와 동일하게 출력될 것
+- 아이템이 넘칠 경우에 스크롤을 출력할 것
+**항목별 특이사항**
+1.아이콘(메인페이지와 동일)
+2.기한
+ - y-m-d 형식으로 출력하기
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-기한초과 목록은 완료목록으로 갱신
+1. 현재시간보다 기한 시간이 작으면 완료처리를 한다
+2. 완료일자에 기한값을 넣는다
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-기한초과 목록은 완료목록으로 갱신
+1. 현재시간보다 항목의 기한시간이 작으면   완료처리를 한다
+2. 완료일자에 기한값을 넣는다
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-기한초과 목록은 완료목록으로 갱신
+1. 현재시간보다 항목의 기한시간이 작으면 완료처리를 한다
+2. 완료일자에 기한값을 넣는다
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="23">
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
+      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="8.0"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF008000"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE2F0D9"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -545,24 +678,209 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -577,7 +895,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -590,7 +907,6 @@
         <color auto="1"/>
       </top>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -603,7 +919,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,15 +929,265 @@
       </right>
       <top/>
       <bottom/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,43 +1200,43 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -695,19 +1260,7 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -731,97 +1284,70 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFBDD7EE"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFE2F0D9"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1087,31 +1613,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
-    <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="7.125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="5.25" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="1" max="1" style="1" width="11.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="1" width="12.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="3" style="2" width="14.75500011" customWidth="1" outlineLevel="0"/>
+    <col min="4" max="4" style="2" width="26.00499916" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="3" width="20.25499916" customWidth="1" outlineLevel="0"/>
+    <col min="7" max="7" style="1" width="37.13000107" customWidth="1" outlineLevel="0"/>
+    <col min="8" max="8" style="3" width="15.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="9" max="9" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="10" max="10" style="2" width="7.13000011" customWidth="1" outlineLevel="0"/>
+    <col min="11" max="11" style="2" width="5.25500011" customWidth="1" outlineLevel="0"/>
+    <col min="12" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" ht="31.500000" customHeight="1"/>
+    <row r="2" spans="2:16">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1143,11 +1669,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="3" spans="2:16" ht="214.500000">
+      <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -1160,7 +1686,7 @@
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>78</v>
@@ -1172,11 +1698,11 @@
         <v>15</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="P3" s="27"/>
+      <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="2:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
+    <row r="4" spans="2:16" ht="198.000000">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>45</v>
       </c>
@@ -1187,7 +1713,7 @@
         <v>46</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
@@ -1197,11 +1723,11 @@
         <v>15</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="P4" s="27"/>
+      <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+    <row r="5" spans="2:16" ht="82.500000">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>16</v>
       </c>
@@ -1212,10 +1738,10 @@
         <v>47</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -1224,38 +1750,38 @@
         <v>15</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="P5" s="27"/>
+      <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="2:16" ht="99" x14ac:dyDescent="0.3">
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="24" t="s">
+    <row r="6" spans="2:16" ht="99.000000">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="5" t="s">
         <v>79</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>83</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="I6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="P6" s="27"/>
+      <c r="K6" s="5"/>
+      <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
+    <row r="7" spans="2:16" ht="82.500000">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
       <c r="D7" s="9" t="s">
         <v>17</v>
       </c>
@@ -1266,9 +1792,11 @@
         <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="H7" s="10"/>
+        <v>111</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
       </c>
@@ -1276,131 +1804,133 @@
         <v>15</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="P7" s="27"/>
+      <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="9" t="s">
+    <row r="8" spans="2:16" ht="148.500000">
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="5" t="s">
+      <c r="F8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="K8" s="5"/>
+      <c r="J8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:16" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>23</v>
-      </c>
+    <row r="9" spans="2:16" ht="49.500000">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>12</v>
+        <v>27</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>79</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+    <row r="10" spans="2:16" ht="66.000000">
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>79</v>
+        <v>42</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:16" ht="66" x14ac:dyDescent="0.3">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="K11" s="13"/>
+    <row r="11" spans="2:16" ht="165.000000" customHeight="1">
+      <c r="B11" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="17"/>
     </row>
-    <row r="12" spans="2:16" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>30</v>
-      </c>
+    <row r="12" spans="2:16" ht="132.000000">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
       <c r="D12" s="17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>32</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H12" s="19" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="I12" s="18" t="s">
         <v>41</v>
@@ -1410,142 +1940,144 @@
       </c>
       <c r="K12" s="17"/>
     </row>
-    <row r="13" spans="2:16" ht="132" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="18" t="s">
+    <row r="13" spans="2:16">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H13" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="I13" s="18" t="s">
+      <c r="F13" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="27"/>
+      <c r="I13" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="17" t="s">
+      <c r="J13" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="K13" s="17"/>
+      <c r="K13" s="29"/>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="31"/>
-      <c r="I14" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="K14" s="33"/>
+    <row r="14" spans="2:16">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
+    <row r="15" spans="2:16" ht="49.500000">
+      <c r="B15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K15" s="5"/>
     </row>
-    <row r="16" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="36" t="s">
-        <v>20</v>
-      </c>
+    <row r="16" spans="2:16" ht="49.500000">
+      <c r="B16" s="9"/>
       <c r="C16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="5" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>68</v>
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="37"/>
+    <row r="17" spans="2:12" ht="49.500000">
+      <c r="B17" s="32" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="5" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="5" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B18" s="36" t="s">
-        <v>48</v>
-      </c>
+    <row r="18" spans="2:12" ht="49.500000">
+      <c r="B18" s="33"/>
       <c r="C18" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F18" s="12" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G18" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="12"/>
+        <v>75</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="I18" s="5" t="s">
         <v>67</v>
       </c>
@@ -1553,26 +2085,27 @@
         <v>69</v>
       </c>
       <c r="K18" s="5"/>
+      <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B19" s="38"/>
+    <row r="19" spans="2:12" ht="49.500000">
+      <c r="B19" s="33"/>
       <c r="C19" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>63</v>
       </c>
       <c r="F19" s="12" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G19" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I19" s="5" t="s">
         <v>67</v>
@@ -1581,30 +2114,30 @@
         <v>69</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="20"/>
+      <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B20" s="38"/>
+    <row r="20" spans="2:12" ht="66.000000">
+      <c r="B20" s="9"/>
       <c r="C20" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F20" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>66</v>
+        <v>77</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>69</v>
@@ -1612,36 +2145,20 @@
       <c r="K20" s="5"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12" ht="66" x14ac:dyDescent="0.3">
-      <c r="B21" s="37"/>
-      <c r="C21" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="K21" s="5"/>
+    <row r="21" spans="2:12">
+      <c r="B21" s="1"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12">
       <c r="C22" s="8"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -1653,40 +2170,40 @@
       <c r="K22" s="21"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C23" s="8"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="23"/>
+    <row r="23" spans="2:12">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="C12:C15"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B3:B8"/>
-    <mergeCell ref="C3:C8"/>
+    <mergeCell ref="B3:B7"/>
+    <mergeCell ref="C3:C7"/>
     <mergeCell ref="P3:P7"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/890_요구명세서.xlsx
+++ b/890_요구명세서.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Polaris Office Sheet" lastEdited="6" lowestEdited="6" rupBuild="9.104.197.51428"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\890-1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="490"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="98">
   <si>
     <t>요구사항 ID</t>
   </si>
@@ -65,16 +69,10 @@
     <t>김관호</t>
   </si>
   <si>
-    <t>LIST01-CHECK01</t>
-  </si>
-  <si>
     <t>LIST01-REDIRECT01</t>
   </si>
   <si>
     <t>상세페이지로 이동</t>
-  </si>
-  <si>
-    <t>작성페이지로 이동</t>
   </si>
   <si>
     <t>COMMON01</t>
@@ -177,9 +175,6 @@
     <t>푸터</t>
   </si>
   <si>
-    <t>LIST01-REDIRECT02</t>
-  </si>
-  <si>
     <t>COMMON02--REDIRECT01</t>
   </si>
   <si>
@@ -238,16 +233,6 @@
   </si>
   <si>
     <t xml:space="preserve">
-제품명 클릭 시 상세 페이지로 이동
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-+버튼 클릭 시 작성 페이지로 이동
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 헤더 출력
 </t>
   </si>
@@ -269,11 +254,6 @@
   <si>
     <t xml:space="preserve">
 TOP 클릭 시 페이지 상단으로 이동
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-장바구니 클릭 시 완료된 리스트페이지로 이동
 </t>
   </si>
   <si>
@@ -293,9 +273,6 @@
     <t>3</t>
   </si>
   <si>
-    <t>LIST01-EXECUTE01</t>
-  </si>
-  <si>
     <t>기한초과 목록 자동갱신</t>
   </si>
   <si>
@@ -310,43 +287,6 @@
   <si>
     <t xml:space="preserve">
 - 삭제페이지 이동 버튼 제작
-</t>
-  </si>
-  <si>
-    <t>-완료플래그</t>
-  </si>
-  <si>
-    <t>-기한</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-메인 페이지 출력
-아이콘, 제품명, 수량, 기한, 체크버튼, 작성 페이지 버튼이 출력될 것
-- 아이템이 넘칠 경우에 스크롤을 출력할 것
-**항목별 특이사항**
-1.아이콘
- - 태그에 따라 다르게 아이콘을 출력
-2.기한
- - (기한-현재시간)-day라고 출력하기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--완료된 목록만 새로 출력
-1. 기한초과된 목록은 붉게 출력
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--화살표 버튼 클릭 시 체크 값 변경
--버튼 클릭 시 슬라이드 애니메이션 후 리프레시
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--기한초과 목록은 미완료목록으로 갱신
-1. 현재시간보다 기한 시간이 작으면 완료플래그에 2를 넣는다
-2. 완료일자에 기한값을 넣는다
 </t>
   </si>
   <si>
@@ -414,49 +354,9 @@
   </si>
   <si>
     <t xml:space="preserve">
--완료된 목록만 새로 출력
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-완료 페이지 출력
-체크버튼을 제외하고 완료페이지와 동일하게 출력될 것
-- 아이템이 넘칠 경우에 스크롤을 출력할 것
-**항목별 특이사항**
-1.아이콘(메인페이지와 동일)
-2.기한
- - y-m-d 형식으로 출력하기
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--체크버튼 클릭 시 체크 값 변경
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 체크버튼 클릭 시 체크 값 변경
-- 체크값을 POST로 리스트페이지로 주고</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-- 체크버튼 클릭 시 체크 값 변경
-- 체크값을 POST로 리스트페이지로 주고
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
 - 체크한 항목의 id값을 리스트페이지에 POST로 주고 그 항목을 완료처리한다
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">
--기한초과 목록은 완료목록으로 갱신
-1. 현재시간보다 기한 시간이 작으면 완료플래그에 2를 넣는다
-2. 완료일자에 기한값을 넣는다
-</t>
-  </si>
-  <si/>
   <si>
     <t>-기한
 -완료플래그
@@ -474,6 +374,41 @@
   </si>
   <si>
     <t>-페이지값</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+-기한초과 목록은 완료목록으로 갱신
+1. 현재시간보다 항목의 기한시간이 작으면 완료처리를 한다
+2. 완료일자에 기한값을 넣는다
+</t>
+  </si>
+  <si>
+    <r>
+      <t>LIST01-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>EXECUTE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>01</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIST01-EXECUTE02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">
@@ -486,171 +421,69 @@
 2.기한
  - y-m-d 형식으로 출력하기
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--기한초과 목록은 완료목록으로 갱신
-1. 현재시간보다 기한 시간이 작으면 완료처리를 한다
-2. 완료일자에 기한값을 넣는다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--기한초과 목록은 완료목록으로 갱신
-1. 현재시간보다 항목의 기한시간이 작으면   완료처리를 한다
-2. 완료일자에 기한값을 넣는다
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
--기한초과 목록은 완료목록으로 갱신
-1. 현재시간보다 항목의 기한시간이 작으면 완료처리를 한다
-2. 완료일자에 기한값을 넣는다
-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+장바구니 클릭 시
+완료페이지-&gt;메인페이지
+메인페이지-&gt;완료페이지 으로 이동
+**항목별 특이사항**
+- 완료페이지에선 버튼이 헤더에 있는 이미지로 표시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FF000000"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
-      <color theme="10"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="맑은 고딕"/>
-      <color theme="11"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <sz val="18.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="3"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F76"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF3F3F3F"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF008000"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FFFA7D00"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF006100"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C0006"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF9C6500"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="0"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color theme="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF7F7F7F"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -678,7 +511,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
+        <fgColor theme="5" tint="0.79995117038483843"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -688,199 +521,14 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599990"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399980"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -895,6 +543,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -907,6 +556,7 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -919,6 +569,7 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -929,265 +580,21 @@
       </right>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color rgb="FFACCCEA"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399980"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="10" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="9" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="11" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,16 +634,16 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
@@ -1260,7 +667,22 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,79 +697,40 @@
     <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
-    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
-    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
-    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
-    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
-    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
-    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
-    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
-    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
-    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
-    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
-    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
-    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
-    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
-    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
-    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
-    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
-    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
-    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
-    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
-    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
-    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
-    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
-    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
-    <cellStyle name="경고문" xfId="9" builtinId="11"/>
-    <cellStyle name="계산" xfId="17" builtinId="22"/>
-    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
-    <cellStyle name="메모" xfId="8" builtinId="10"/>
-    <cellStyle name="백분율" xfId="3" builtinId="5"/>
-    <cellStyle name="보통" xfId="23" builtinId="28"/>
-    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
-    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
-    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
-    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
-    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="요약" xfId="20" builtinId="25"/>
-    <cellStyle name="입력" xfId="15" builtinId="20"/>
-    <cellStyle name="제목" xfId="10" builtinId="15"/>
-    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
-    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
-    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
-    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
-    <cellStyle name="좋음" xfId="21" builtinId="26"/>
-    <cellStyle name="출력" xfId="16" builtinId="21"/>
-    <cellStyle name="통화" xfId="2" builtinId="4"/>
-    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+  <cellStyles count="3">
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1613,31 +996,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:P23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.00000000" defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" style="1" width="11.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="2" max="2" style="1" width="12.38000011" customWidth="1" outlineLevel="0"/>
-    <col min="3" max="3" style="2" width="14.75500011" customWidth="1" outlineLevel="0"/>
-    <col min="4" max="4" style="2" width="26.00499916" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="6" max="6" style="3" width="20.25499916" customWidth="1" outlineLevel="0"/>
-    <col min="7" max="7" style="1" width="37.13000107" customWidth="1" outlineLevel="0"/>
-    <col min="8" max="8" style="3" width="15.63000011" customWidth="1" outlineLevel="0"/>
-    <col min="9" max="9" style="2" width="9.00500011" customWidth="1" outlineLevel="0"/>
-    <col min="10" max="10" style="2" width="7.13000011" customWidth="1" outlineLevel="0"/>
-    <col min="11" max="11" style="2" width="5.25500011" customWidth="1" outlineLevel="0"/>
-    <col min="12" max="16384" style="1" width="9.00500011" customWidth="1" outlineLevel="0"/>
+    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="37.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="9" style="2" customWidth="1"/>
+    <col min="10" max="10" width="7.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.25" style="2" customWidth="1"/>
+    <col min="12" max="12" width="9" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.500000" customHeight="1"/>
-    <row r="2" spans="2:16">
+    <row r="1" spans="2:16" ht="31.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1669,15 +1053,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="214.500000">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="2:16" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>12</v>
@@ -1686,10 +1070,10 @@
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>14</v>
@@ -1698,50 +1082,50 @@
         <v>15</v>
       </c>
       <c r="K3" s="5"/>
-      <c r="P3" s="8"/>
-    </row>
-    <row r="4" spans="2:16" ht="198.000000">
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="2:16" ht="198" x14ac:dyDescent="0.3">
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>113</v>
+        <v>44</v>
+      </c>
+      <c r="G4" s="39" t="s">
+        <v>96</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="P4" s="8"/>
-    </row>
-    <row r="5" spans="2:16" ht="82.500000">
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>16</v>
+      <c r="P4" s="25"/>
+    </row>
+    <row r="5" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="37" t="s">
+        <v>94</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>14</v>
@@ -1750,52 +1134,52 @@
         <v>15</v>
       </c>
       <c r="K5" s="5"/>
-      <c r="P5" s="8"/>
-    </row>
-    <row r="6" spans="2:16" ht="99.000000">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>82</v>
+      <c r="P5" s="25"/>
+    </row>
+    <row r="6" spans="2:16" ht="99" x14ac:dyDescent="0.3">
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="37" t="s">
+        <v>95</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>15</v>
       </c>
       <c r="K6" s="5"/>
-      <c r="P6" s="8"/>
-    </row>
-    <row r="7" spans="2:16" ht="82.500000">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="P6" s="25"/>
+    </row>
+    <row r="7" spans="2:16" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>12</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>14</v>
@@ -1804,349 +1188,348 @@
         <v>15</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="2:16" ht="148.500000">
-      <c r="B8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="24" t="s">
-        <v>23</v>
+      <c r="P7" s="25"/>
+    </row>
+    <row r="8" spans="2:16" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="I8" s="14" t="s">
         <v>14</v>
       </c>
       <c r="J8" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K8" s="13"/>
     </row>
-    <row r="9" spans="2:16" ht="49.500000">
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
+    <row r="9" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E9" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F9" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="13" t="s">
-        <v>86</v>
-      </c>
       <c r="G9" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="14" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K9" s="13"/>
     </row>
-    <row r="10" spans="2:16" ht="66.000000">
-      <c r="B10" s="24"/>
-      <c r="C10" s="24"/>
+    <row r="10" spans="2:16" ht="66" x14ac:dyDescent="0.3">
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
       <c r="D10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="14" t="s">
         <v>14</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K10" s="13"/>
     </row>
-    <row r="11" spans="2:16" ht="165.000000" customHeight="1">
-      <c r="B11" s="29" t="s">
+    <row r="11" spans="2:16" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="29" t="s">
+      <c r="E11" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="F11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="G11" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K11" s="17"/>
+    </row>
+    <row r="12" spans="2:16" ht="132" x14ac:dyDescent="0.3">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="E12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="17" t="s">
+      <c r="G12" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K11" s="17"/>
-    </row>
-    <row r="12" spans="2:16" ht="132.000000">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="17" t="s">
+      <c r="J12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="17"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H12" s="19" t="s">
+      <c r="E13" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J12" s="17" t="s">
+      <c r="G13" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="32"/>
+      <c r="I13" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="K12" s="17"/>
-    </row>
-    <row r="13" spans="2:16">
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="29" t="s">
+      <c r="J13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="27"/>
-      <c r="I13" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="30"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-    </row>
-    <row r="15" spans="2:16" ht="49.500000">
-      <c r="B15" s="32" t="s">
-        <v>20</v>
+      <c r="K13" s="27"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="34" t="s">
+        <v>18</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="2:16" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="35"/>
+      <c r="C16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11" t="s">
         <v>68</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:16" ht="49.500000">
-      <c r="B16" s="9"/>
-      <c r="C16" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:12" ht="49.500000">
-      <c r="B17" s="32" t="s">
-        <v>48</v>
+    <row r="17" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="34" t="s">
+        <v>46</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F17" s="12" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H17" s="12"/>
       <c r="I17" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K17" s="5"/>
     </row>
-    <row r="18" spans="2:12" ht="49.500000">
-      <c r="B18" s="33"/>
+    <row r="18" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B18" s="36"/>
       <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="G18" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H18" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="20"/>
     </row>
-    <row r="19" spans="2:12" ht="49.500000">
-      <c r="B19" s="33"/>
+    <row r="19" spans="2:12" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B19" s="36"/>
       <c r="C19" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19" s="12" t="s">
+      <c r="I19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>69</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="23"/>
     </row>
-    <row r="20" spans="2:12" ht="66.000000">
-      <c r="B20" s="9"/>
+    <row r="20" spans="2:12" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="B20" s="35"/>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="38" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>65</v>
-      </c>
       <c r="I20" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="23"/>
     </row>
-    <row r="21" spans="2:12">
-      <c r="B21" s="1"/>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C21" s="8"/>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
@@ -2158,7 +1541,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="23"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C22" s="8"/>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
@@ -2170,40 +1553,28 @@
       <c r="K22" s="21"/>
       <c r="L22" s="23"/>
     </row>
-    <row r="23" spans="2:12">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:H14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="K13:K14"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="C11:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="B3:B7"/>
     <mergeCell ref="C3:C7"/>
     <mergeCell ref="P3:P7"/>
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="C11:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="K13:K14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>